--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2563270.171795869</v>
+        <v>2660668.822886243</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.07113985546249</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30.558173504993</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>162.9947207958796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174344</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>20.19393502789902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.6845543210566</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100847</v>
+        <v>59.24433418100845</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -792,13 +794,13 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>186.8621940150167</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>82.65335405305447</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>60.01368733417313</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731855</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>174.8742516126254</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>198.2175085914295</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>56.6631722282977</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>51.85072505002654</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>190.0223488547188</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>355.5650861198575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>48.03644161695777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589021</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>115.2173922683864</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>3.166281869766803</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>6.430825802817566</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>88.00848539540318</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>192.8335951560907</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292604</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589021</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>61.50644830559746</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.68750238080782</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="T25" t="n">
-        <v>195.4012580427168</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>249.8016791897707</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.1861887532213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>86.87391125748593</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>148.5873298926981</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>28.22722778407942</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3235,25 +3237,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>22.54732564824115</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,13 +3322,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.00806043385895</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.8019544335057</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881769</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>157.8097232340287</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>82.57906258117903</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>179.1118285501286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>116.6290529729278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>183.0172251110638</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1346.125399806635</v>
+        <v>1441.019098606684</v>
       </c>
       <c r="C2" t="n">
-        <v>977.1628828662233</v>
+        <v>1072.056581666272</v>
       </c>
       <c r="D2" t="n">
-        <v>618.8971842594729</v>
+        <v>1072.056581666272</v>
       </c>
       <c r="E2" t="n">
-        <v>233.1089316612286</v>
+        <v>1072.056581666272</v>
       </c>
       <c r="F2" t="n">
-        <v>226.1634309120251</v>
+        <v>661.0706768766645</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307499</v>
+        <v>242.8170002549852</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015904</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060702</v>
+        <v>397.0764468060704</v>
       </c>
       <c r="L2" t="n">
-        <v>769.564092592718</v>
+        <v>769.5640925927181</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
         <v>1624.048915811679</v>
@@ -4352,28 +4354,28 @@
         <v>2365.451310684985</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804436</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222156</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="T2" t="n">
-        <v>2109.431301222156</v>
+        <v>2145.547744211334</v>
       </c>
       <c r="U2" t="n">
-        <v>2089.033387052561</v>
+        <v>2145.547744211334</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.033387052561</v>
+        <v>1814.484856867763</v>
       </c>
       <c r="W2" t="n">
-        <v>1736.264731782447</v>
+        <v>1814.484856867763</v>
       </c>
       <c r="X2" t="n">
-        <v>1736.264731782447</v>
+        <v>1441.019098606684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.125399806635</v>
+        <v>1441.019098606684</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>814.4037949101946</v>
+        <v>683.0848112127511</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>508.6317819316241</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="F3" t="n">
         <v>359.6973722703728</v>
@@ -4401,25 +4403,25 @@
         <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435657</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="J3" t="n">
-        <v>52.1270979858252</v>
+        <v>108.2048630683007</v>
       </c>
       <c r="K3" t="n">
-        <v>282.8286256313368</v>
+        <v>338.9063907138124</v>
       </c>
       <c r="L3" t="n">
-        <v>654.4396961743691</v>
+        <v>710.5174612568447</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.071509376558</v>
+        <v>1196.149274459033</v>
       </c>
       <c r="N3" t="n">
-        <v>1654.263565019105</v>
+        <v>1710.341330101581</v>
       </c>
       <c r="O3" t="n">
         <v>2058.233162108977</v>
@@ -4440,19 +4442,19 @@
         <v>1945.051103087509</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549719</v>
+        <v>1756.30141216325</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317976</v>
+        <v>1521.149303931507</v>
       </c>
       <c r="W3" t="n">
-        <v>1398.230930900749</v>
+        <v>1266.911947203306</v>
       </c>
       <c r="X3" t="n">
-        <v>1190.379430695217</v>
+        <v>1059.060446997773</v>
       </c>
       <c r="Y3" t="n">
-        <v>982.6191319302627</v>
+        <v>851.3001482328191</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.2846702579423</v>
+        <v>216.2452091416066</v>
       </c>
       <c r="C4" t="n">
-        <v>337.6647840618078</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5481446494721</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="I4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369971</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181573</v>
+        <v>88.80529410181575</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.4326649365658</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950591</v>
+        <v>322.3541198950592</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896733</v>
+        <v>449.7398382896734</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885918</v>
+        <v>551.3848716885921</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546179</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546177</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546177</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="S4" t="n">
-        <v>398.2846702579423</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="T4" t="n">
-        <v>398.2846702579423</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="U4" t="n">
-        <v>398.2846702579423</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="V4" t="n">
-        <v>398.2846702579423</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="W4" t="n">
-        <v>398.2846702579423</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="X4" t="n">
-        <v>398.2846702579423</v>
+        <v>574.5343321664174</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.2846702579423</v>
+        <v>397.8936739718463</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.489050745291</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1236.578376364604</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>825.5924715749966</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>407.6286634731835</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2639.913563514892</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2639.913563514892</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2386.151778152983</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2055.088890809413</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2055.088890809413</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2055.088890809413</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>2055.088890809413</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
         <v>505.8730812692495</v>
@@ -4641,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>256.4340909802017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>256.4340909802017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>106.317451567866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>106.317451567866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>256.4340909802017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>256.4340909802017</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191.835263233623</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y8" t="n">
-        <v>1578.435103297744</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240418</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240418</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5115,13 +5117,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>771.773793647135</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3925893356336</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>244.9764857454526</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1220.555923688682</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>992.5663727906651</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>771.773793647135</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,55 +5266,55 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027649</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906986</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.42128699119</v>
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,13 +5348,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5476,10 +5478,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>613.3602005021706</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.5676213586405</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>888.4135721382795</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1339.447785386688</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2317.998088216517</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3297.750360443164</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279159</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789529</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297019</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773122</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419722</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>647.5249577361934</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C19" t="n">
-        <v>478.5887748082865</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D19" t="n">
-        <v>478.5887748082865</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E19" t="n">
-        <v>330.6756812258934</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>330.6756812258934</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>330.6756812258934</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>184.4584944437512</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814702</v>
+        <v>1761.562056856127</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.724257814702</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="W19" t="n">
-        <v>1096.307087777741</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="X19" t="n">
-        <v>868.3175368797235</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y19" t="n">
-        <v>647.5249577361934</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,40 +5740,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5792,10 +5794,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.7238607267858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C22" t="n">
-        <v>719.7238607267858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D22" t="n">
-        <v>569.60722131445</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>901.3723255570255</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.3723255570255</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>702.9183254305503</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1153.952538678959</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>1687.484443350884</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.6043516563539</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C25" t="n">
-        <v>388.668168728447</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D25" t="n">
-        <v>388.668168728447</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="T25" t="n">
-        <v>1477.452116565102</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="U25" t="n">
-        <v>1477.452116565102</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.452116565102</v>
+        <v>1893.620415868856</v>
       </c>
       <c r="W25" t="n">
-        <v>1188.034946528141</v>
+        <v>1604.203245831895</v>
       </c>
       <c r="X25" t="n">
-        <v>960.0453956301237</v>
+        <v>1376.213694933878</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2528164865936</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6220,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>722.4071781934688</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6294,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6306,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3499.147081080648</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>3330.210898152741</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>3330.210898152741</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>3182.297804570348</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>3182.297804570348</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.768765573601</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>4274.768765573601</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>4020.084277367714</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W28" t="n">
-        <v>4020.084277367714</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X28" t="n">
-        <v>3792.094726469697</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y28" t="n">
-        <v>3680.795545910888</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>780.024691801817</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1231.058905050226</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2209.609207880054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3189.361480106701</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3617.643233393944</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C31" t="n">
-        <v>3529.891807881332</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D31" t="n">
-        <v>3379.775168468997</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>3231.862074886603</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>3084.972127388693</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>4274.768765573601</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>4020.084277367714</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>4020.084277367714</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>4020.084277367714</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>3799.291698224184</v>
+        <v>241.7782212305366</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2064.476622801002</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.6690720494838</v>
+        <v>3497.451174280397</v>
       </c>
       <c r="C34" t="n">
-        <v>517.7328891215769</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="D34" t="n">
-        <v>367.6162497092412</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="E34" t="n">
-        <v>367.6162497092412</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="F34" t="n">
-        <v>367.6162497092412</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>4177.351782872418</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.724257814702</v>
+        <v>3922.667294666531</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.307087777741</v>
+        <v>3899.892218254166</v>
       </c>
       <c r="X34" t="n">
-        <v>868.3175368797235</v>
+        <v>3899.892218254166</v>
       </c>
       <c r="Y34" t="n">
-        <v>868.3175368797235</v>
+        <v>3679.099639110636</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6938,22 +6940,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1460.488316778687</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M35" t="n">
-        <v>2439.038619608516</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2985.817436667298</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
         <v>4719.034655862919</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,10 +7016,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7032,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.773793647135</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="C37" t="n">
-        <v>602.8376107192281</v>
+        <v>291.5548412088865</v>
       </c>
       <c r="D37" t="n">
-        <v>452.7209713068924</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>304.8078777244992</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>304.8078777244992</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>304.8078777244992</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1509.973093725643</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>1220.555923688682</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X37" t="n">
-        <v>992.5663727906651</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y37" t="n">
-        <v>771.773793647135</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.425187676631</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7199,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4741280307875</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="C40" t="n">
-        <v>243.4741280307875</v>
+        <v>3773.434671845129</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T40" t="n">
-        <v>1707.109248019779</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="U40" t="n">
-        <v>1418.006381145422</v>
+        <v>4207.432514129719</v>
       </c>
       <c r="V40" t="n">
-        <v>1163.321892939535</v>
+        <v>4207.432514129719</v>
       </c>
       <c r="W40" t="n">
-        <v>873.9047229025747</v>
+        <v>4207.432514129719</v>
       </c>
       <c r="X40" t="n">
-        <v>645.9151720045573</v>
+        <v>4207.432514129719</v>
       </c>
       <c r="Y40" t="n">
-        <v>425.1225928610272</v>
+        <v>4124.019319603275</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8820807562848</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1098.605412891584</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1549.639626139993</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>540.4807149410336</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C43" t="n">
-        <v>540.4807149410336</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7597,22 +7599,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>950.1187306692907</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>722.1291797712734</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>722.1291797712734</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7648,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2368.748013620957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3189.361480106701</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7673,25 +7675,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.0071782166609</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C46" t="n">
-        <v>381.070995288754</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D46" t="n">
-        <v>381.070995288754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1771.477582154134</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.890966501056</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.206478295169</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W46" t="n">
-        <v>998.7893082582084</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X46" t="n">
-        <v>770.7997573601911</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.0071782166609</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>69.44682818639322</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>337.2181121227138</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263816</v>
+        <v>55.86574532263812</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8710,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.0727796301222</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>161.8544041422911</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>103.7862464855153</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9398,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>36.48628322062268</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>85.51392558917576</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>105.1996354507095</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>163.3991441460108</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>48.65289230147084</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>395.1460246798101</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>161.0524397463283</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>276.60065598683</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23416,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>52.02942883024146</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>162.8595263892614</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>219.2788295862196</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>8.343935014434905</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>93.37824304952221</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>84.92751434097171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>160.897150971287</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>127.6732055979524</v>
       </c>
       <c r="T25" t="n">
-        <v>24.14769123345241</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2.335964134057264</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.3984645988734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>80.3729098411419</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>69.99732345939674</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>137.7985804749488</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>263.9756726883498</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.6074125843534</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>33.95306048081513</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>61.73922604214047</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>136.0055907709158</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>69.99732345939674</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>107.4111697864624</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>29.80490967364136</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26071,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>36.53172416510543</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785695.4361863859</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>785695.4361863858</v>
+        <v>785695.4361863859</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>785695.4361863858</v>
+        <v>785695.4361863859</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785695.4361863858</v>
+        <v>785695.4361863859</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785695.4361863858</v>
+        <v>785695.4361863859</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>785695.4361863857</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191733</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.859019173</v>
       </c>
       <c r="G2" t="n">
         <v>635330.859019173</v>
       </c>
       <c r="H2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="I2" t="n">
         <v>635330.8590191731</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="L2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.8590191733</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="L2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.859019173</v>
-      </c>
       <c r="P2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106463</v>
+        <v>493391.6844106465</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447076</v>
+        <v>91792.63957447052</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>154726.5356832156</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220119</v>
+        <v>21342.09858220114</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26418,34 +26420,34 @@
         <v>244465.9635861109</v>
       </c>
       <c r="C4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="D4" t="n">
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079766</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079766</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.9550307976</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="K4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
         <v>32032.9550307977</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140115</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,10 +26487,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26522,28 +26524,28 @@
         <v>-157285.3382367322</v>
       </c>
       <c r="C6" t="n">
-        <v>263401.3732552112</v>
+        <v>263401.3732552116</v>
       </c>
       <c r="D6" t="n">
-        <v>355194.0128296819</v>
+        <v>355194.0128296822</v>
       </c>
       <c r="E6" t="n">
-        <v>-220463.0282587447</v>
+        <v>-220463.0282587452</v>
       </c>
       <c r="F6" t="n">
-        <v>506914.3857346618</v>
+        <v>506914.3857346617</v>
       </c>
       <c r="G6" t="n">
         <v>506914.3857346617</v>
       </c>
       <c r="H6" t="n">
-        <v>506914.3857346618</v>
+        <v>506914.3857346614</v>
       </c>
       <c r="I6" t="n">
-        <v>506914.3857346615</v>
+        <v>506914.3857346617</v>
       </c>
       <c r="J6" t="n">
-        <v>352187.850051446</v>
+        <v>352187.8500514459</v>
       </c>
       <c r="K6" t="n">
         <v>485572.2871524603</v>
@@ -26552,13 +26554,13 @@
         <v>506914.3857346614</v>
       </c>
       <c r="M6" t="n">
-        <v>377272.0708957169</v>
+        <v>377272.0708957171</v>
       </c>
       <c r="N6" t="n">
+        <v>506914.3857346617</v>
+      </c>
+      <c r="O6" t="n">
         <v>506914.3857346614</v>
-      </c>
-      <c r="O6" t="n">
-        <v>506914.3857346617</v>
       </c>
       <c r="P6" t="n">
         <v>506914.3857346614</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435485</v>
+        <v>306.3599178435486</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435485</v>
+        <v>306.3599178435486</v>
       </c>
       <c r="C3" t="n">
-        <v>71.3837463735382</v>
+        <v>71.38374637353803</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330925</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330925</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712464</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330925</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>296.3035290786526</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174339</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>231.0531900671637</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27460,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27512,13 +27514,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>39.03583524739534</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>169.0416291078651</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.2331337644547</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848792</v>
+        <v>54.30080173848791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731856</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>43.71040173946943</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>125.7052641729276</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>117.7525405806738</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>93.57032297290471</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>159.2186198626942</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>30.6728525361961</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>61.5316190581546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>238.24543262502</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31042,46 +31044,46 @@
         <v>1.231597659672556</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212157</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452625</v>
+        <v>47.48116877452627</v>
       </c>
       <c r="J2" t="n">
         <v>104.5303118676337</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801573</v>
+        <v>156.6638408015731</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678777</v>
+        <v>194.3553476787771</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589788</v>
+        <v>216.2577725589789</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095235</v>
+        <v>219.7570494095236</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811545</v>
+        <v>207.5103501811546</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579882</v>
+        <v>177.1052829579883</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709648</v>
+        <v>132.9986917709649</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940624</v>
+        <v>77.36434648940629</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978839</v>
+        <v>28.0650316697884</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216616</v>
+        <v>5.391318755216618</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380444</v>
+        <v>0.09852781277380449</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540478</v>
+        <v>0.658962842154048</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014093</v>
+        <v>6.364193765014096</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478477</v>
+        <v>22.68797504784771</v>
       </c>
       <c r="J3" t="n">
-        <v>62.2575376440366</v>
+        <v>62.25753764403662</v>
       </c>
       <c r="K3" t="n">
         <v>106.4080480683578</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.0787521966498</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.966155224734</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302319</v>
+        <v>171.385252530232</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382922</v>
+        <v>156.7840232382923</v>
       </c>
       <c r="P3" t="n">
         <v>125.8330009723813</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338335</v>
+        <v>84.1160287633834</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163466</v>
+        <v>40.91349997163468</v>
       </c>
       <c r="S3" t="n">
         <v>12.23994577422101</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945481</v>
+        <v>2.656082683945482</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276631</v>
+        <v>0.04335281856276633</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654152</v>
+        <v>0.5524523108654155</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296706</v>
+        <v>4.911803272967061</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584358</v>
+        <v>16.61374767584359</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818486</v>
+        <v>39.05837837818487</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509096</v>
+        <v>64.18491393509098</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448184</v>
+        <v>82.13459174448187</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502141</v>
+        <v>86.59941087502143</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361401</v>
+        <v>84.54027044361405</v>
       </c>
       <c r="O4" t="n">
-        <v>78.0866229939589</v>
+        <v>78.08662299395893</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230437</v>
+        <v>66.8165958523044</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437582</v>
+        <v>46.26034759437584</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400312</v>
+        <v>24.84026481400313</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263642</v>
+        <v>9.627737090263645</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515864</v>
+        <v>2.360478055515865</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084087</v>
+        <v>0.03013376241084088</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,13 +31840,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32096,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32558,7 +32560,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,10 +34210,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302117</v>
+        <v>92.5810225130212</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.7194023277573</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592402</v>
+        <v>376.2501472592403</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245386</v>
+        <v>435.4250728245387</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249167</v>
+        <v>427.6909102249168</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222131</v>
+        <v>358.2123200222132</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742013</v>
+        <v>267.6709953742014</v>
       </c>
       <c r="Q2" t="n">
         <v>123.00799255642</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.866739163763131</v>
+        <v>61.51094631777876</v>
       </c>
       <c r="K3" t="n">
         <v>233.0318461065774</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>375.3647177202348</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527156</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904521</v>
+        <v>519.3859147904523</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705773</v>
+        <v>351.4058909165616</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979882</v>
+        <v>310.3213621979883</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920811</v>
+        <v>41.91542210920812</v>
       </c>
       <c r="L4" t="n">
         <v>109.724617004798</v>
@@ -34872,7 +34874,7 @@
         <v>102.6717509079986</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719786</v>
+        <v>64.09515511719789</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35428,10 +35430,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.8670844338417</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>714.1562395552025</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35668,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>440.9775330409158</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>588.7881186335342</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>422.7052121445763</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36379,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>442.39092200611</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36616,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>500.5904307014113</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>587.5740081316976</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37090,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37306,16 +37308,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7361390721422</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
@@ -37324,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.8394407150408</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37786,22 +37788,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>828.9024913997415</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38035,7 +38037,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2660668.822886243</v>
+        <v>2654928.708178025</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359935</v>
+        <v>6663746.095359936</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>30.558173504993</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.80956361638477</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -746,10 +746,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6845543210566</v>
@@ -758,7 +758,7 @@
         <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356738</v>
+        <v>66.70865780356739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100845</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>186.8621940150167</v>
+        <v>140.9008813581147</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731855</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>214.7759472699433</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.8742516126254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>125.4501863650582</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>198.2175085914295</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>76.49510003288715</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>190.0223488547188</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.1423514055434</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>48.03644161695777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166281869766803</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.722134848647618</v>
       </c>
     </row>
     <row r="14">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>192.8335951560907</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.68750238080782</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>62.09581973348946</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,10 +2769,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V28" t="n">
-        <v>249.8016791897707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.5873298926981</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>22.54732564824115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>28.00806043385895</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>98.80399951402467</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.57906258117903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="44">
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>183.0172251110638</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1441.019098606684</v>
+        <v>637.1493357016326</v>
       </c>
       <c r="C2" t="n">
-        <v>1072.056581666272</v>
+        <v>637.1493357016326</v>
       </c>
       <c r="D2" t="n">
-        <v>1072.056581666272</v>
+        <v>637.1493357016326</v>
       </c>
       <c r="E2" t="n">
-        <v>1072.056581666272</v>
+        <v>637.1493357016326</v>
       </c>
       <c r="F2" t="n">
-        <v>661.0706768766645</v>
+        <v>630.2038349524291</v>
       </c>
       <c r="G2" t="n">
-        <v>242.8170002549852</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.9642385015904</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060704</v>
+        <v>397.0764468060701</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927181</v>
+        <v>769.5640925927178</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689011</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811678</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633669</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054128</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684985</v>
+        <v>2338.370943395706</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684985</v>
+        <v>2338.370943395706</v>
       </c>
       <c r="T2" t="n">
-        <v>2145.547744211334</v>
+        <v>2338.370943395706</v>
       </c>
       <c r="U2" t="n">
-        <v>2145.547744211334</v>
+        <v>2084.585968552209</v>
       </c>
       <c r="V2" t="n">
-        <v>1814.484856867763</v>
+        <v>1753.523081208638</v>
       </c>
       <c r="W2" t="n">
-        <v>1814.484856867763</v>
+        <v>1400.754425938524</v>
       </c>
       <c r="X2" t="n">
-        <v>1441.019098606684</v>
+        <v>1027.288667677444</v>
       </c>
       <c r="Y2" t="n">
-        <v>1441.019098606684</v>
+        <v>637.1493357016326</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>683.0848112127511</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>508.6317819316241</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>359.6973722703728</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
         <v>359.6973722703728</v>
@@ -4403,58 +4403,58 @@
         <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>114.6915088435657</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683007</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138124</v>
+        <v>278.0105538592112</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568447</v>
+        <v>649.6216244022435</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459033</v>
+        <v>1135.253437604432</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101581</v>
+        <v>1501.594138030026</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.233162108977</v>
+        <v>1905.563735119897</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310684985</v>
+        <v>2212.781883695905</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885987</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926778</v>
+        <v>2204.397547725775</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087509</v>
+        <v>2204.397547725775</v>
       </c>
       <c r="U3" t="n">
-        <v>1756.30141216325</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1521.149303931507</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1266.911947203306</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1059.060446997773</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>851.3001482328191</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4467,70 +4467,70 @@
         <v>216.2452091416066</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181575</v>
+        <v>88.80529410181566</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365658</v>
+        <v>197.4326649365656</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950592</v>
+        <v>322.3541198950589</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896734</v>
+        <v>449.739838289673</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885921</v>
+        <v>551.3848716885915</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546179</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664174</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="R4" t="n">
-        <v>574.5343321664174</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="S4" t="n">
-        <v>574.5343321664174</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="T4" t="n">
-        <v>574.5343321664174</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="U4" t="n">
-        <v>574.5343321664174</v>
+        <v>397.8936739718463</v>
       </c>
       <c r="V4" t="n">
-        <v>574.5343321664174</v>
+        <v>397.8936739718463</v>
       </c>
       <c r="W4" t="n">
-        <v>574.5343321664174</v>
+        <v>397.8936739718463</v>
       </c>
       <c r="X4" t="n">
-        <v>574.5343321664174</v>
+        <v>397.8936739718463</v>
       </c>
       <c r="Y4" t="n">
         <v>397.8936739718463</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.578376364604</v>
+        <v>1121.052642832205</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.578376364604</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="D5" t="n">
-        <v>1236.578376364604</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="E5" t="n">
-        <v>1236.578376364604</v>
+        <v>752.0901258917932</v>
       </c>
       <c r="F5" t="n">
-        <v>825.5924715749966</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>407.6286634731835</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1623.178216428726</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
         <v>505.8730812692495</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4682,7 +4682,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1022.857360389877</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>611.8714556002692</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733138</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224084</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2119.115747685226</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2119.115747685226</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2119.115747685226</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,25 +4910,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>559.192801278527</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>559.192801278527</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>411.2797076961339</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>264.3897601982235</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5044,10 +5044,10 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464784</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
         <v>2432.390822294613</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.866433243363</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="C13" t="n">
-        <v>391.866433243363</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D13" t="n">
-        <v>391.866433243363</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E13" t="n">
-        <v>391.866433243363</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>244.9764857454526</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.866433243363</v>
+        <v>889.3694558989293</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5284,13 +5284,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5518,16 +5518,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>876.4469737784534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1761.562056856127</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1506.87756865024</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.87756865024</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1278.888017752223</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.095438608693</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,16 +5737,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.4266860607763</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,16 +5974,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,22 +5992,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1893.620415868856</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1893.620415868856</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1893.620415868856</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1893.620415868856</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1604.203245831895</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1376.213694933878</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>1155.421115790348</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1001.463171152184</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>712.0460011152229</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>484.0564502172056</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>263.2638710736754</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,16 +6466,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>241.7782212305366</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,19 +6700,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>360.1279170711156</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1465.885462454824</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3497.451174280397</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177249</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746775</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>4177.351782872418</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>3922.667294666531</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3899.892218254166</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3899.892218254166</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3679.099639110636</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,7 +6922,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6937,28 +6937,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7016,10 +7016,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>460.4910241367934</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>291.5548412088865</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>909.2731541783409</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>681.2836032803235</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>460.4910241367934</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7180,22 +7180,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3942.370854773036</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C40" t="n">
-        <v>3773.434671845129</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432793</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.4049388504</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.51499135249</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>4207.432514129719</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>4207.432514129719</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>4207.432514129719</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>4207.432514129719</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y40" t="n">
-        <v>4124.019319603275</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7438,19 +7438,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7654,22 +7654,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1771.477582154134</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1482.374715279778</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.374715279778</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1192.957545242817</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>964.9679943448</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.1754152012699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>64.58008902263015</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,16 +8069,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>329.9975710941059</v>
       </c>
       <c r="O3" t="n">
-        <v>337.2181121227138</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263812</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747269</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9640,10 +9640,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>288.0478149561032</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>76.45227440777347</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>295.4822118493981</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>162.8595263892614</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>212.8625185034472</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>93.37824304952221</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>160.897150971287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>127.6732055979524</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V28" t="n">
-        <v>2.335964134057264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.99732345939674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>263.9756726883498</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>120.6074125843534</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>81.02798066791263</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.0055907709158</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>69.99732345939674</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>36.53172416510543</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>859710.8671887855</v>
+        <v>859710.8671887856</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>785695.4361863859</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>785695.4361863859</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785695.4361863859</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785695.4361863859</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>785695.4361863859</v>
+        <v>785695.4361863858</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914259</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914263</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="H2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="J2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="L2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="N2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="I2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="J2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="K2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="L2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191733</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.8590191727</v>
-      </c>
       <c r="P2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191726</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106465</v>
+        <v>493391.684410646</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447052</v>
+        <v>91792.639574471</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934072</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832156</v>
+        <v>154726.5356832155</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220114</v>
+        <v>21342.09858220122</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861109</v>
+        <v>244465.963586111</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26447,16 +26447,16 @@
         <v>32032.95503079769</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079765</v>
       </c>
       <c r="M4" t="n">
+        <v>32032.95503079765</v>
+      </c>
+      <c r="N4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="N4" t="n">
-        <v>32032.95503079769</v>
-      </c>
       <c r="O4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079764</v>
       </c>
       <c r="P4" t="n">
         <v>32032.95503079769</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140115</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26524,46 +26524,46 @@
         <v>-157285.3382367322</v>
       </c>
       <c r="C6" t="n">
-        <v>263401.3732552116</v>
+        <v>263401.3732552107</v>
       </c>
       <c r="D6" t="n">
-        <v>355194.0128296822</v>
+        <v>355194.0128296827</v>
       </c>
       <c r="E6" t="n">
-        <v>-220463.0282587452</v>
+        <v>-221134.9831610037</v>
       </c>
       <c r="F6" t="n">
-        <v>506914.3857346617</v>
+        <v>506242.4308324035</v>
       </c>
       <c r="G6" t="n">
-        <v>506914.3857346617</v>
+        <v>506242.4308324035</v>
       </c>
       <c r="H6" t="n">
-        <v>506914.3857346614</v>
+        <v>506242.4308324037</v>
       </c>
       <c r="I6" t="n">
-        <v>506914.3857346617</v>
+        <v>506242.4308324035</v>
       </c>
       <c r="J6" t="n">
-        <v>352187.8500514459</v>
+        <v>351515.8951491882</v>
       </c>
       <c r="K6" t="n">
-        <v>485572.2871524603</v>
+        <v>484900.3322502025</v>
       </c>
       <c r="L6" t="n">
-        <v>506914.3857346614</v>
+        <v>506242.4308324035</v>
       </c>
       <c r="M6" t="n">
-        <v>377272.0708957171</v>
+        <v>376600.1159934586</v>
       </c>
       <c r="N6" t="n">
-        <v>506914.3857346617</v>
+        <v>506242.4308324034</v>
       </c>
       <c r="O6" t="n">
-        <v>506914.3857346614</v>
+        <v>506242.4308324036</v>
       </c>
       <c r="P6" t="n">
-        <v>506914.3857346614</v>
+        <v>506242.4308324032</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435486</v>
+        <v>306.3599178435483</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.362827671246</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435486</v>
+        <v>306.3599178435483</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353803</v>
+        <v>71.38374637353843</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-9.668181292713305e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.362827671246</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330925</v>
+        <v>82.92444508330959</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.3628276712459</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330925</v>
+        <v>82.92444508330959</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.362827671246</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330925</v>
+        <v>82.92444508330959</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3035290786526</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174339</v>
+        <v>45.69520783535873</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.955037916457</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27466,10 +27466,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.2443341810085</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>39.03583524739534</v>
+        <v>84.99714790429735</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848791</v>
+        <v>54.30080173848795</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.9016956573186</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631664</v>
@@ -27593,7 +27593,7 @@
         <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>71.51294832413669</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.71040173946943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>281.4258593766533</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>125.7052641729276</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.4387434050066</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.924692362643</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>337.2890699879079</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>159.2186198626942</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>4.167450853507518</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>238.24543262502</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-7.031462609625592e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672556</v>
+        <v>1.231597659672555</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212157</v>
+        <v>12.61309953212156</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452627</v>
+        <v>47.48116877452622</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676337</v>
+        <v>104.5303118676336</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015731</v>
+        <v>156.6638408015729</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787771</v>
+        <v>194.3553476787769</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589789</v>
+        <v>216.2577725589787</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095236</v>
+        <v>219.7570494095233</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811546</v>
+        <v>207.5103501811543</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579883</v>
+        <v>177.1052829579881</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709649</v>
+        <v>132.9986917709647</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940629</v>
+        <v>77.36434648940619</v>
       </c>
       <c r="S2" t="n">
-        <v>28.0650316697884</v>
+        <v>28.06503166978837</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216618</v>
+        <v>5.391318755216612</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380449</v>
+        <v>0.09852781277380437</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.658962842154048</v>
+        <v>0.6589628421540472</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014096</v>
+        <v>6.364193765014089</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784771</v>
+        <v>22.68797504784768</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403662</v>
+        <v>62.25753764403655</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683578</v>
+        <v>106.4080480683577</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966498</v>
+        <v>143.0787521966496</v>
       </c>
       <c r="M3" t="n">
-        <v>166.966155224734</v>
+        <v>166.9661552247338</v>
       </c>
       <c r="N3" t="n">
-        <v>171.385252530232</v>
+        <v>171.3852525302318</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382923</v>
+        <v>156.7840232382921</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723813</v>
+        <v>125.8330009723812</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.1160287633834</v>
+        <v>84.1160287633833</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163468</v>
+        <v>40.91349997163463</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422101</v>
+        <v>12.239945774221</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945482</v>
+        <v>2.656082683945479</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276633</v>
+        <v>0.04335281856276628</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654155</v>
+        <v>0.5524523108654148</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967061</v>
+        <v>4.911803272967055</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584359</v>
+        <v>16.61374767584357</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818487</v>
+        <v>39.05837837818483</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509098</v>
+        <v>64.1849139350909</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448187</v>
+        <v>82.13459174448178</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502143</v>
+        <v>86.59941087502133</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361405</v>
+        <v>84.54027044361395</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395893</v>
+        <v>78.08662299395884</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523044</v>
+        <v>66.81659585230433</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437584</v>
+        <v>46.26034759437579</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400313</v>
+        <v>24.8402648140031</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263645</v>
+        <v>9.627737090263635</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515865</v>
+        <v>2.360478055515863</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084088</v>
+        <v>0.03013376241084085</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233475</v>
@@ -32557,10 +32557,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33499,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.5810225130212</v>
+        <v>92.58102251302108</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277573</v>
+        <v>260.7194023277571</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592403</v>
+        <v>376.2501472592401</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245387</v>
+        <v>435.4250728245385</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249168</v>
+        <v>427.6909102249166</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222132</v>
+        <v>358.212320022213</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742014</v>
+        <v>267.6709953742012</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.00799255642</v>
+        <v>123.0079925564199</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777876</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065774</v>
+        <v>233.0318461065773</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202348</v>
+        <v>375.3647177202346</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527156</v>
+        <v>490.5371850527154</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904523</v>
+        <v>370.0411115410044</v>
       </c>
       <c r="O3" t="n">
-        <v>351.4058909165616</v>
+        <v>408.0500980705772</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979883</v>
+        <v>310.3213621979881</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.2115424132109</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920812</v>
+        <v>41.91542210920805</v>
       </c>
       <c r="L4" t="n">
-        <v>109.724617004798</v>
+        <v>109.7246170047979</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368619</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.6724428228425</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079986</v>
+        <v>102.6717509079985</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719789</v>
+        <v>64.09515511719782</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535759</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35494,7 +35494,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013292</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35886,10 +35886,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36205,10 +36205,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36360,10 +36360,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>743.6379293484354</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36378,7 +36378,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>267.239275376486</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37080,10 +37080,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>751.0723262417303</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2654928.708178025</v>
+        <v>2658334.199302475</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359936</v>
+        <v>6663746.095359935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.88270951</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>333.1991779030963</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.80956361638477</v>
+        <v>72.504771451743</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>101.2911696734201</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>140.9008813581147</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>20.21563711194</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>214.7759472699433</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>185.864430919943</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>125.4501863650582</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.52687838733164</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>16.889865504349</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>76.49510003288715</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>156.7418470016293</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.1423514055434</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>86.34579418975109</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>111.7244765928109</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.722134848647618</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>194.690203170048</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>127.3165365479897</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>100.0025634447706</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>33.33967451532731</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,13 +2769,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785995</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369654</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873204</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>102.6674580053593</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.80399951402467</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.7580505000001</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>253.406555691917</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>637.1493357016326</v>
+        <v>794.8597571680511</v>
       </c>
       <c r="C2" t="n">
-        <v>637.1493357016326</v>
+        <v>794.8597571680511</v>
       </c>
       <c r="D2" t="n">
-        <v>637.1493357016326</v>
+        <v>794.8597571680511</v>
       </c>
       <c r="E2" t="n">
-        <v>637.1493357016326</v>
+        <v>794.8597571680511</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>383.8738523784436</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015904</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060701</v>
+        <v>397.0764468060718</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927178</v>
+        <v>769.5640925927207</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811678</v>
+        <v>1624.048915811683</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633669</v>
+        <v>1978.679112633676</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054128</v>
+        <v>2243.673398054136</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684993</v>
       </c>
       <c r="R2" t="n">
-        <v>2338.370943395706</v>
+        <v>2292.214167804444</v>
       </c>
       <c r="S2" t="n">
-        <v>2338.370943395706</v>
+        <v>2109.431301222165</v>
       </c>
       <c r="T2" t="n">
-        <v>2338.370943395706</v>
+        <v>1889.527734748513</v>
       </c>
       <c r="U2" t="n">
-        <v>2084.585968552209</v>
+        <v>1889.527734748513</v>
       </c>
       <c r="V2" t="n">
-        <v>1753.523081208638</v>
+        <v>1558.464847404943</v>
       </c>
       <c r="W2" t="n">
-        <v>1400.754425938524</v>
+        <v>1558.464847404943</v>
       </c>
       <c r="X2" t="n">
-        <v>1027.288667677444</v>
+        <v>1184.999089143863</v>
       </c>
       <c r="Y2" t="n">
-        <v>637.1493357016326</v>
+        <v>794.8597571680511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>762.2368865560002</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>587.7838572748732</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>438.8494476136219</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>438.8494476136219</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>292.3148896405069</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>154.2496832556012</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435657</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592112</v>
+        <v>278.0105538592121</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022435</v>
+        <v>649.6216244022452</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604432</v>
+        <v>1135.253437604434</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030026</v>
+        <v>1649.445493246983</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119897</v>
+        <v>2053.415090336855</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695905</v>
+        <v>2360.633238912864</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684993</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684993</v>
       </c>
       <c r="S3" t="n">
-        <v>2204.397547725775</v>
+        <v>2263.136997883558</v>
       </c>
       <c r="T3" t="n">
-        <v>2204.397547725775</v>
+        <v>2063.633315044289</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1835.453487506499</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1600.301379274757</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1346.064022546555</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1138.212522341022</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>930.4522235760683</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.2452091416066</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369968</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369968</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369968</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369968</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369985</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181566</v>
+        <v>88.80529410181623</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365656</v>
+        <v>197.4326649365667</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950589</v>
+        <v>322.3541198950605</v>
       </c>
       <c r="N4" t="n">
-        <v>449.739838289673</v>
+        <v>449.7398382896752</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885915</v>
+        <v>551.3848716885942</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546204</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546204</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546204</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546173</v>
+        <v>594.4192397880144</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546173</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="U4" t="n">
-        <v>397.8936739718463</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="V4" t="n">
-        <v>397.8936739718463</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="W4" t="n">
-        <v>397.8936739718463</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="X4" t="n">
-        <v>397.8936739718463</v>
+        <v>366.5554909266349</v>
       </c>
       <c r="Y4" t="n">
-        <v>397.8936739718463</v>
+        <v>366.5554909266349</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1121.052642832205</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C5" t="n">
-        <v>752.0901258917932</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D5" t="n">
-        <v>752.0901258917932</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>752.0901258917932</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.645612988121</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>1408.645612988121</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D8" t="n">
-        <v>1408.645612988121</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="E8" t="n">
-        <v>1022.857360389877</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="F8" t="n">
-        <v>611.8714556002692</v>
+        <v>783.6978639085316</v>
       </c>
       <c r="G8" t="n">
-        <v>534.6036777892721</v>
+        <v>365.7340558067185</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733138</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224084</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4822,7 +4822,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1408.645612988121</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050018</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064339</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="C10" t="n">
-        <v>559.192801278527</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="D10" t="n">
-        <v>559.192801278527</v>
+        <v>289.0740493317991</v>
       </c>
       <c r="E10" t="n">
-        <v>411.2797076961339</v>
+        <v>141.160955749406</v>
       </c>
       <c r="F10" t="n">
-        <v>264.3897601982235</v>
+        <v>141.160955749406</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323015</v>
+        <v>141.160955749406</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064339</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064339</v>
+        <v>470.7225141620388</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5047,16 +5047,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.7209910686896</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7848081407827</v>
+        <v>505.4206280180455</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>355.3039886057097</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5244,7 +5244,7 @@
         <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3694558989293</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5311,7 +5311,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1568.000811052694</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="17">
@@ -5494,43 +5494,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>224.163596618081</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,52 +5752,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,13 +5831,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>533.2127443498355</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>364.2765614219286</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>196.5737247966476</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>935.6537883236053</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>714.8612091800752</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1732.058578925876</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M23" t="n">
-        <v>2265.590483597801</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>2812.369300656583</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6028,7 +6028,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,25 +6068,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,22 +6226,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2730.49472550168</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3610.459375831135</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,25 +6305,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,22 +6463,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1840.447459262339</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2373.979363934263</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,25 +6542,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674226</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.576850674226</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1734.576850674226</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1445.159680637265</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1445.159680637265</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>1224.367101493735</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>360.1279170711156</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1014.851249206415</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1465.885462454824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1999.417367126749</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6730,7 +6730,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,25 +6779,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,22 +6873,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
         <v>1270.093287563029</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6925,7 +6925,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6937,19 +6937,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,22 +7110,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
         <v>1270.093287563029</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,40 +7162,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,25 +7253,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1568.000811052694</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X40" t="n">
-        <v>1123.1389409875</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y40" t="n">
-        <v>1123.1389409875</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,13 +7490,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,34 +7584,34 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
         <v>277.2094992786341</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,52 +7648,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,25 +7727,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1197.09429138796</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>942.4098031820731</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902263015</v>
+        <v>64.58008902262975</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>329.9975710941059</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.73248448640376</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564223</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9877,10 +9877,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>192.185308577136</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10114,10 +10114,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>285.7011105564225</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>76.45227440777347</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260169</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>34.70948605375828</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.8625185034472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>24.8587461061212</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>17.43847836633107</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>44.75245146955019</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>218.7979688085007</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270134</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>217.1504125601315</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>77.164522176578</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.02798066791263</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>113.7908987761691</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.80528251369586</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>859710.8671887856</v>
+        <v>859710.8671887855</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>785695.4361863858</v>
+        <v>785695.4361863859</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785695.4361863858</v>
+        <v>785695.4361863859</v>
       </c>
     </row>
     <row r="11">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914259</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191731</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191732</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.859019173</v>
       </c>
       <c r="H2" t="n">
         <v>635330.859019173</v>
@@ -26343,19 +26343,19 @@
         <v>635330.859019173</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="M2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="N2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="O2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="P2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410646</v>
+        <v>493391.6844106487</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.639574471</v>
+        <v>91792.63957446849</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934072</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832155</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220122</v>
+        <v>21342.09858220064</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.963586111</v>
+        <v>244465.9635861103</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26426,40 +26426,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="F4" t="n">
         <v>32032.95503079769</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="I4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="J4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="K4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079766</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="M4" t="n">
-        <v>32032.95503079765</v>
+        <v>32032.95503079768</v>
       </c>
       <c r="N4" t="n">
+        <v>32032.95503079767</v>
+      </c>
+      <c r="O4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="P4" t="n">
         <v>32032.9550307977</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32032.95503079764</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32032.95503079769</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140129</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-157285.3382367322</v>
+        <v>-157285.3382367338</v>
       </c>
       <c r="C6" t="n">
-        <v>263401.3732552107</v>
+        <v>263401.3732552136</v>
       </c>
       <c r="D6" t="n">
-        <v>355194.0128296827</v>
+        <v>355194.0128296823</v>
       </c>
       <c r="E6" t="n">
-        <v>-221134.9831610037</v>
+        <v>-220530.2237489708</v>
       </c>
       <c r="F6" t="n">
-        <v>506242.4308324035</v>
+        <v>506847.1902444361</v>
       </c>
       <c r="G6" t="n">
-        <v>506242.4308324035</v>
+        <v>506847.1902444358</v>
       </c>
       <c r="H6" t="n">
-        <v>506242.4308324037</v>
+        <v>506847.1902444358</v>
       </c>
       <c r="I6" t="n">
-        <v>506242.4308324035</v>
+        <v>506847.1902444356</v>
       </c>
       <c r="J6" t="n">
-        <v>351515.8951491882</v>
+        <v>352120.6545612197</v>
       </c>
       <c r="K6" t="n">
-        <v>484900.3322502025</v>
+        <v>485505.0916622353</v>
       </c>
       <c r="L6" t="n">
-        <v>506242.4308324035</v>
+        <v>506847.1902444357</v>
       </c>
       <c r="M6" t="n">
-        <v>376600.1159934586</v>
+        <v>377204.875405491</v>
       </c>
       <c r="N6" t="n">
-        <v>506242.4308324034</v>
+        <v>506847.1902444359</v>
       </c>
       <c r="O6" t="n">
-        <v>506242.4308324036</v>
+        <v>506847.1902444357</v>
       </c>
       <c r="P6" t="n">
-        <v>506242.4308324032</v>
+        <v>506847.1902444357</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435483</v>
+        <v>306.3599178435502</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712482</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435483</v>
+        <v>306.3599178435502</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353843</v>
+        <v>71.38374637353644</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.668181292713305e-14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712482</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330959</v>
+        <v>82.92444508330743</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712459</v>
+        <v>591.3628276712482</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330959</v>
+        <v>82.92444508330743</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712482</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330959</v>
+        <v>82.92444508330743</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>80.87196195236618</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>45.69520783535873</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.955037916457</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356725</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810085</v>
+        <v>59.24433418100824</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>58.15205565619668</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>84.99714790429735</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848795</v>
+        <v>54.3008017384877</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.9016956573186</v>
+        <v>39.90169565731831</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>194.1732238347685</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.51294832413669</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>168.81861070074</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>281.4258593766533</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>120.4387434050066</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>12.23288445056531</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>337.2890699879079</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>167.1809257627279</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>4.167450853507518</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>69.82509465204406</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-2.802900281749e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-7.031462609625592e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672555</v>
+        <v>1.231597659672563</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212164</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452622</v>
+        <v>47.48116877452652</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676336</v>
+        <v>104.5303118676343</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015729</v>
+        <v>156.6638408015739</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787769</v>
+        <v>194.3553476787781</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589787</v>
+        <v>216.25777255898</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095233</v>
+        <v>219.7570494095247</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811543</v>
+        <v>207.5103501811556</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579881</v>
+        <v>177.1052829579892</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709647</v>
+        <v>132.9986917709655</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940619</v>
+        <v>77.36434648940669</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978837</v>
+        <v>28.06503166978855</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216612</v>
+        <v>5.391318755216646</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380437</v>
+        <v>0.098527812773805</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540472</v>
+        <v>0.6589628421540514</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014089</v>
+        <v>6.364193765014129</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784768</v>
+        <v>22.68797504784783</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403655</v>
+        <v>62.25753764403694</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683577</v>
+        <v>106.4080480683584</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966496</v>
+        <v>143.0787521966505</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247338</v>
+        <v>166.9661552247348</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302318</v>
+        <v>171.3852525302329</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382921</v>
+        <v>156.7840232382931</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723812</v>
+        <v>125.833000972382</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.1160287633833</v>
+        <v>84.11602876338382</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163463</v>
+        <v>40.91349997163489</v>
       </c>
       <c r="S3" t="n">
-        <v>12.239945774221</v>
+        <v>12.23994577422108</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945479</v>
+        <v>2.656082683945495</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276628</v>
+        <v>0.04335281856276656</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654148</v>
+        <v>0.5524523108654184</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967055</v>
+        <v>4.911803272967086</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584357</v>
+        <v>16.61374767584368</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818483</v>
+        <v>39.05837837818508</v>
       </c>
       <c r="K4" t="n">
-        <v>64.1849139350909</v>
+        <v>64.18491393509132</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448178</v>
+        <v>82.13459174448229</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502133</v>
+        <v>86.59941087502187</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361395</v>
+        <v>84.54027044361449</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395884</v>
+        <v>78.08662299395934</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230433</v>
+        <v>66.81659585230474</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437579</v>
+        <v>46.26034759437608</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140031</v>
+        <v>24.84026481400326</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263635</v>
+        <v>9.627737090263697</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515863</v>
+        <v>2.360478055515878</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084085</v>
+        <v>0.03013376241084103</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31861,7 +31861,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302108</v>
+        <v>92.58102251302174</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277571</v>
+        <v>260.7194023277581</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592401</v>
+        <v>376.2501472592413</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245385</v>
+        <v>435.4250728245398</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249166</v>
+        <v>427.690910224918</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022213</v>
+        <v>358.2123200222143</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742012</v>
+        <v>267.6709953742023</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564199</v>
+        <v>123.0079925564207</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065773</v>
+        <v>233.031846106578</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202346</v>
+        <v>375.3647177202355</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527154</v>
+        <v>490.5371850527164</v>
       </c>
       <c r="N3" t="n">
-        <v>370.0411115410044</v>
+        <v>519.3859147904531</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705772</v>
+        <v>408.0500980705782</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979881</v>
+        <v>310.3213621979889</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132109</v>
+        <v>4.866739163766066</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920805</v>
+        <v>41.91542210920846</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047979</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368619</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228425</v>
+        <v>128.6724428228431</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079985</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719782</v>
+        <v>64.09515511719823</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535759</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,10 +35424,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35509,7 +35509,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757939</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>631.8075074371754</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>590.9472947965077</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>741.2912249487545</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451066</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>267.239275376486</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142359</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
